--- a/project/uploads/93/split_output/6起吊.xlsx
+++ b/project/uploads/93/split_output/6起吊.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85F172E-B490-463A-A177-78EBEDEA2085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F856366-2E43-468A-8FB1-6224E1321849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{8BCCF082-3105-4D59-B9B5-B1DD00EAC08E}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" xr2:uid="{8022B69C-0138-48A7-9803-D55B251E2346}"/>
   </bookViews>
   <sheets>
     <sheet name="6起吊" sheetId="1" r:id="rId1"/>
@@ -2170,7 +2170,7 @@
         <xdr:cNvPr id="2" name="组合 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{821145C3-F397-4E4F-A4C2-FA82F690407E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD82B85-290A-44D4-9691-772F2B7C5210}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,8 +2178,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6037608" y="2367584"/>
-          <a:ext cx="1323975" cy="865946"/>
+          <a:off x="6036503" y="2428323"/>
+          <a:ext cx="1323975" cy="888034"/>
           <a:chOff x="4991100" y="4324350"/>
           <a:chExt cx="1323975" cy="933450"/>
         </a:xfrm>
@@ -2189,7 +2189,7 @@
           <xdr:cNvPr id="3" name="Picture 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A386E6EE-BFD5-B9A8-0006-4348591BA5BD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFE09BF-0528-D1FE-DDAD-1E4CFCB7F21D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2226,7 +2226,7 @@
           <xdr:cNvPr id="4" name="直接连接符 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E574ED75-60E7-8EC7-3A98-6C0207D0BE0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0550FCC8-A244-7876-5226-DFCEEF136CDB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2256,7 +2256,7 @@
           <xdr:cNvPr id="5" name="直接箭头连接符 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0660F7B7-BA40-EBE0-3897-6EC7E4AADA55}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D8188A-9C2F-335F-609D-D32EE8C43A22}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2288,7 +2288,7 @@
           <xdr:cNvPr id="6" name="矩形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B52B7D-E0F9-5C85-1A02-39A52FDB5291}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{033E429C-64CB-91E3-ED9B-0AF7F8B7693D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2350,7 +2350,7 @@
         <xdr:cNvPr id="7" name="Picture 889">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F395630-4A4A-42DE-A631-2C62DDE3BB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D701FF36-1C02-4CED-BAC4-576965AA4522}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,8 +2367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1579245" y="632460"/>
-          <a:ext cx="962025" cy="1133475"/>
+          <a:off x="1577975" y="647700"/>
+          <a:ext cx="962025" cy="1158875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2402,7 +2402,7 @@
         <xdr:cNvPr id="8" name="Picture 890">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887D12D7-E552-465F-B168-7DC23EAE202F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B745E47-D8B2-4E22-A0AD-7D00783A9296}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2419,8 +2419,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3103245" y="632460"/>
-          <a:ext cx="1000125" cy="1143000"/>
+          <a:off x="3101975" y="647700"/>
+          <a:ext cx="1000125" cy="1168400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2454,7 +2454,7 @@
         <xdr:cNvPr id="9" name="Picture 891">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{138BF561-FF58-4620-B23E-1F4506EDDA57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808836C8-C7A6-478A-BF14-489FAD75E5A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2471,8 +2471,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4551045" y="622935"/>
-          <a:ext cx="1390650" cy="1169670"/>
+          <a:off x="4549775" y="638175"/>
+          <a:ext cx="1390650" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2498,15 +2498,15 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6115050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>198782</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Picture 892">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5FBFCA9-82DE-4C78-BE39-AE26034FC73D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC3B020-63E1-48A7-AD7D-14FA400B359F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,8 +2523,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6189345" y="632460"/>
-          <a:ext cx="1190625" cy="1150620"/>
+          <a:off x="6188075" y="647700"/>
+          <a:ext cx="1190625" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2558,7 +2558,7 @@
         <xdr:cNvPr id="11" name="Picture 893">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53610060-DE53-4233-9D3D-D121B03D3F6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{038DDCCC-2AD0-44EF-B3BD-CE1031E08A61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2575,8 +2575,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1512570" y="2114550"/>
-          <a:ext cx="1333500" cy="1173480"/>
+          <a:off x="1511300" y="2165350"/>
+          <a:ext cx="1333500" cy="1206500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2610,7 +2610,7 @@
         <xdr:cNvPr id="12" name="Picture 894">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EB1765-7449-4152-AFAE-1C0B89443F61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3739C7D1-6153-48C1-9FC9-12AB5D69F9A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2627,8 +2627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3017520" y="2114550"/>
-          <a:ext cx="1076325" cy="1173480"/>
+          <a:off x="3016250" y="2165350"/>
+          <a:ext cx="1076325" cy="1206500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2662,7 +2662,7 @@
         <xdr:cNvPr id="13" name="CheckBox2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1DA7D54-B879-41A6-8DC9-5A3C120E7BB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7F5119-EC66-4A4A-B7A6-E4B87A926CF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,8 +2685,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4504690" y="1826260"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="4503420" y="1871980"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2727,7 +2727,7 @@
         <xdr:cNvPr id="14" name="CheckBox5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EB18F9-B712-4540-83DD-E7B55615C252}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA73F961-C71B-4973-9F8F-BE609821A3BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,8 +2750,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1922145" y="4080510"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1920875" y="4184650"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2792,7 +2792,7 @@
         <xdr:cNvPr id="15" name="CheckBox6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C641BBD8-C217-467D-8486-03D0824D0EB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764A2878-0CCC-44CE-91DD-C352C1215BB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2815,7 +2815,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4200818" y="4070985"/>
+          <a:off x="4199548" y="4175125"/>
           <a:ext cx="152400" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2857,7 +2857,7 @@
         <xdr:cNvPr id="16" name="CheckBox7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0289AF36-9E8E-42F8-AA68-50BEE46B169E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F16A84C-0AB6-4741-9416-2A95CC9CAE77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,8 +2880,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1474470" y="3288030"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="1473200" y="3371850"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2922,7 +2922,7 @@
         <xdr:cNvPr id="17" name="CheckBox8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EB3D73-E2F3-4370-B265-F959F6A84EAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C7B4987-EB3E-46BF-B62D-4B5E1CCC4B1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,8 +2945,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076575" y="3309620"/>
-          <a:ext cx="152400" cy="179070"/>
+          <a:off x="3075305" y="3393440"/>
+          <a:ext cx="152400" cy="184150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2987,7 +2987,7 @@
         <xdr:cNvPr id="18" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CEB775-A58F-44A8-8391-0B6B8191835A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2A821E-C506-4866-A7BE-3FC03791A839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,8 +3003,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1464310" y="31673800"/>
-          <a:ext cx="5207635" cy="2308225"/>
+          <a:off x="1463040" y="32268160"/>
+          <a:ext cx="5207635" cy="2369185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3035,7 +3035,7 @@
         <xdr:cNvPr id="19" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E9BF47-97A1-4A37-9354-85B4C7E79FAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84FB58F3-D510-442E-832D-853FF8C6E04F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,8 +3051,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1760220" y="34970085"/>
-          <a:ext cx="4952365" cy="3176270"/>
+          <a:off x="1758950" y="35615245"/>
+          <a:ext cx="4952365" cy="3054350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3083,7 +3083,7 @@
         <xdr:cNvPr id="20" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0D0B2CB-1593-49D7-98AA-C125CE94545B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D5BE05-578E-47A9-BDCD-2FAC3B0A0986}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3099,8 +3099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2048510" y="38957250"/>
-          <a:ext cx="1216025" cy="1048385"/>
+          <a:off x="2047240" y="39458900"/>
+          <a:ext cx="1216025" cy="1010285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3131,7 +3131,7 @@
         <xdr:cNvPr id="21" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07E6FFE0-47BC-45B5-BDAD-6DCBD62B296D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC940FEE-4754-4DF7-970D-8D905A15679D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3148,8 +3148,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2553335" y="40573325"/>
-          <a:ext cx="1586230" cy="1247140"/>
+          <a:off x="2552065" y="41031795"/>
+          <a:ext cx="1586230" cy="1201420"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3180,7 +3180,7 @@
         <xdr:cNvPr id="22" name="图片 85">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFBF632-B828-415C-B992-10DBA24BA727}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C4B72D-A070-4393-8FA2-175FA4257C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3197,8 +3197,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1703070" y="26772870"/>
-          <a:ext cx="4431030" cy="3847465"/>
+          <a:off x="1701800" y="27258010"/>
+          <a:ext cx="4431030" cy="3943985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3220,7 +3220,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>490634</xdr:colOff>
+      <xdr:colOff>496156</xdr:colOff>
       <xdr:row>180</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
@@ -3229,7 +3229,7 @@
         <xdr:cNvPr id="23" name="图片 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CB2C852-E30E-4E82-8CB7-F31FCA66679E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0368A87F-6E00-482D-9022-1860B5B61F3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3245,8 +3245,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6798945" y="31618555"/>
-          <a:ext cx="3343910" cy="2496185"/>
+          <a:off x="6797675" y="32212915"/>
+          <a:ext cx="3341370" cy="2562225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3277,7 +3277,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D90C28-6DB3-4AE2-972D-8D769563A122}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75ACDF13-3B54-454C-9541-0B8D4F018BB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,8 +3293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1388745" y="14213840"/>
-          <a:ext cx="5876925" cy="1824990"/>
+          <a:off x="1387475" y="14404340"/>
+          <a:ext cx="5876925" cy="1870710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3325,7 +3325,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AFDD9B-6D27-493C-AB64-697D2ED81CD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82542028-1739-49EC-89EE-D0466B7E1926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,8 +3341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1722120" y="16071215"/>
-          <a:ext cx="4419600" cy="4879340"/>
+          <a:off x="1720850" y="16312515"/>
+          <a:ext cx="4419600" cy="5001260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3373,7 +3373,7 @@
         <xdr:cNvPr id="26" name="图片 102">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AC0872-9B3A-46C8-97D5-C8260E87DB80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A9E887-BEF6-4E2B-822D-C949266D524F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3389,8 +3389,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4101465" y="22171025"/>
-          <a:ext cx="3593465" cy="2102485"/>
+          <a:off x="4100195" y="22554565"/>
+          <a:ext cx="3593465" cy="2158365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3421,7 +3421,7 @@
         <xdr:cNvPr id="27" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465950F2-A789-4278-B3FE-4308B425F228}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F69B4DD3-8BB4-4341-9719-67D92D3E927F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3437,8 +3437,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1331595" y="21731605"/>
-          <a:ext cx="2789555" cy="3348990"/>
+          <a:off x="1330325" y="22104985"/>
+          <a:ext cx="2789555" cy="3435350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3469,7 +3469,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9E4362-DC6C-4BD0-AAA8-CF72AEF44CB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000E1726-6493-44F2-8B32-126D4562AFF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,8 +3485,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1311910" y="5990590"/>
-          <a:ext cx="2068195" cy="1458595"/>
+          <a:off x="1310640" y="6109970"/>
+          <a:ext cx="2068195" cy="1494155"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3513,7 +3513,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F00FA7D-27EB-4A7F-A2EB-CDFD396A2725}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175C3F5F-CACD-4679-986E-CB47CA6693C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3529,8 +3529,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3512820" y="5885815"/>
-          <a:ext cx="1990090" cy="1649730"/>
+          <a:off x="3511550" y="6005195"/>
+          <a:ext cx="1990090" cy="1685290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3557,7 +3557,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54205E43-1E59-46B5-90F5-4DCEEACFB09E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379F5532-3F3C-4BE8-8AC9-8DF70B5FB04C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3573,8 +3573,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1311910" y="7760335"/>
-          <a:ext cx="1878330" cy="1625600"/>
+          <a:off x="1310640" y="7920355"/>
+          <a:ext cx="1878330" cy="1643380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3601,7 +3601,7 @@
         <xdr:cNvPr id="31" name="图片 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76C7E87-2328-4315-942D-DE809B92CF6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3BD662-F12C-40E1-AFD8-BB7DB6DE232E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3617,8 +3617,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3371215" y="7615555"/>
-          <a:ext cx="1898650" cy="1978025"/>
+          <a:off x="3369945" y="7775575"/>
+          <a:ext cx="1898650" cy="1995805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3645,7 +3645,7 @@
         <xdr:cNvPr id="32" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6332BDA6-E365-4080-B5A7-985A3846394F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158F1C26-1F75-417C-8820-BC96D5385E1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,8 +3661,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5376545" y="5898515"/>
-          <a:ext cx="2791460" cy="4132580"/>
+          <a:off x="5375275" y="6017895"/>
+          <a:ext cx="2790190" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9273,7 +9273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFBF0C8-0DE5-4265-A4EB-9DD37CB9F2EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FCF489-28C2-4DF3-9048-59F246FC1F6E}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9283,15 +9283,15 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="84.59765625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="6.59765625" customWidth="1"/>
-    <col min="12" max="12" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" customWidth="1"/>
+    <col min="12" max="12" width="8.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9302,124 +9302,124 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="10"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9"/>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
     </row>
-    <row r="18" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="12"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="13"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="9"/>
     </row>
-    <row r="22" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="9"/>
     </row>
-    <row r="23" spans="1:3" ht="58.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="14" t="s">
         <v>9</v>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="C24" s="9"/>
     </row>
-    <row r="25" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="16"/>
       <c r="C25" s="9"/>
@@ -9443,52 +9443,52 @@
       <c r="B26" s="17"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="18"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="18"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="18"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="18"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="18"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="18"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="18"/>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="18"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="18"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="18"/>
       <c r="C36" s="9"/>
@@ -9498,12 +9498,12 @@
       <c r="B37" s="18"/>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="18"/>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="1:3" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="18"/>
       <c r="C39" s="9"/>
@@ -9533,11 +9533,11 @@
       <c r="B44" s="19"/>
       <c r="C44" s="9"/>
     </row>
-    <row r="45" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
     </row>
-    <row r="46" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9577,117 +9577,117 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="29"/>
     </row>
-    <row r="74" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="29"/>
     </row>
-    <row r="75" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="29"/>
     </row>
-    <row r="76" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="29"/>
     </row>
-    <row r="77" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="29"/>
     </row>
-    <row r="78" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="29"/>
     </row>
-    <row r="79" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="29"/>
     </row>
-    <row r="80" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="29"/>
     </row>
-    <row r="81" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="29"/>
     </row>
-    <row r="82" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="29"/>
     </row>
-    <row r="83" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="29"/>
     </row>
-    <row r="84" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="29"/>
     </row>
-    <row r="85" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="29"/>
     </row>
-    <row r="86" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="29"/>
     </row>
-    <row r="87" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="29"/>
     </row>
-    <row r="88" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="29"/>
     </row>
-    <row r="89" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="29"/>
     </row>
-    <row r="90" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="30"/>
     </row>
-    <row r="91" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="22"/>
     </row>
-    <row r="92" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="22"/>
     </row>
     <row r="93" spans="2:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -9695,154 +9695,154 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="32"/>
     </row>
-    <row r="95" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="32"/>
     </row>
-    <row r="96" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="32"/>
     </row>
-    <row r="97" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="32"/>
     </row>
-    <row r="98" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="32"/>
     </row>
-    <row r="99" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="32"/>
     </row>
-    <row r="100" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="32"/>
     </row>
-    <row r="101" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="32"/>
     </row>
-    <row r="102" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="32"/>
     </row>
-    <row r="103" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="32"/>
     </row>
-    <row r="104" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="32"/>
     </row>
-    <row r="105" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="32"/>
     </row>
-    <row r="106" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="32"/>
     </row>
-    <row r="107" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="32"/>
     </row>
-    <row r="108" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="32"/>
     </row>
-    <row r="109" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="32"/>
     </row>
-    <row r="110" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="32"/>
     </row>
-    <row r="111" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="33"/>
     </row>
-    <row r="112" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="22"/>
     </row>
-    <row r="113" spans="2:2" ht="46.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="47" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="23"/>
     </row>
-    <row r="114" spans="2:2" ht="28.05" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="28" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="34"/>
     </row>
-    <row r="115" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="22"/>
     </row>
-    <row r="116" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="22"/>
     </row>
-    <row r="117" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="22"/>
     </row>
-    <row r="118" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="22"/>
     </row>
-    <row r="119" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="22"/>
     </row>
-    <row r="120" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="22"/>
     </row>
-    <row r="121" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="22"/>
     </row>
-    <row r="122" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="22"/>
     </row>
-    <row r="123" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="22"/>
     </row>
-    <row r="124" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="22"/>
     </row>
-    <row r="125" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="22"/>
     </row>
-    <row r="126" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="22"/>
     </row>
-    <row r="127" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="22"/>
     </row>
-    <row r="128" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="22"/>
     </row>
-    <row r="129" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="22"/>
     </row>
-    <row r="130" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="22"/>
     </row>
-    <row r="131" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="22"/>
     </row>
-    <row r="132" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="22"/>
     </row>
-    <row r="133" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="22"/>
     </row>
-    <row r="134" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="22"/>
     </row>
-    <row r="135" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="22"/>
     </row>
-    <row r="136" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="22"/>
     </row>
-    <row r="137" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="22"/>
     </row>
-    <row r="138" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="22"/>
     </row>
-    <row r="139" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="22"/>
     </row>
-    <row r="140" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="22"/>
     </row>
-    <row r="141" spans="2:2" ht="15.9" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="22"/>
     </row>
-    <row r="142" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="22"/>
     </row>
-    <row r="143" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="22"/>
     </row>
     <row r="144" spans="2:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -9850,120 +9850,120 @@
         <v>18</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="22"/>
     </row>
-    <row r="146" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="22"/>
     </row>
-    <row r="147" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="22"/>
     </row>
-    <row r="148" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="22"/>
     </row>
-    <row r="149" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="22"/>
     </row>
-    <row r="150" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="22"/>
     </row>
-    <row r="151" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="22"/>
     </row>
-    <row r="152" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="22"/>
     </row>
-    <row r="153" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="22"/>
     </row>
-    <row r="154" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="22"/>
     </row>
-    <row r="155" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="22"/>
     </row>
-    <row r="156" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="22"/>
     </row>
-    <row r="157" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="22"/>
     </row>
-    <row r="158" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="22"/>
     </row>
-    <row r="159" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="22"/>
     </row>
-    <row r="160" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="22"/>
     </row>
-    <row r="161" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="22"/>
     </row>
-    <row r="162" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="22"/>
     </row>
-    <row r="163" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="22"/>
     </row>
-    <row r="164" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="22"/>
     </row>
-    <row r="165" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="22"/>
     </row>
-    <row r="166" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="13"/>
     </row>
-    <row r="167" spans="2:2" ht="46.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="47" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="13"/>
     </row>
-    <row r="169" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="13"/>
     </row>
-    <row r="170" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="13"/>
     </row>
-    <row r="171" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="13"/>
     </row>
-    <row r="172" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="13"/>
     </row>
-    <row r="173" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="13"/>
     </row>
-    <row r="174" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="13"/>
     </row>
-    <row r="175" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="13"/>
     </row>
-    <row r="176" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="13"/>
     </row>
-    <row r="177" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="13"/>
     </row>
-    <row r="178" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="13"/>
     </row>
-    <row r="179" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="13"/>
     </row>
-    <row r="180" spans="2:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="13"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="13"/>
     </row>
-    <row r="182" spans="2:2" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="51" x14ac:dyDescent="0.25">
       <c r="B182" s="37" t="s">
         <v>20</v>
       </c>
@@ -10026,7 +10026,7 @@
       <c r="A201" s="38"/>
       <c r="B201" s="38"/>
     </row>
-    <row r="202" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A202" s="39" t="s">
         <v>21</v>
       </c>
@@ -10058,13 +10058,13 @@
       <c r="A208" s="39"/>
       <c r="B208" s="43"/>
     </row>
-    <row r="209" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A209" s="39"/>
       <c r="B209" s="40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A210" s="39"/>
       <c r="B210" s="40" t="s">
         <v>24</v>
@@ -10098,7 +10098,7 @@
       <c r="A217" s="39"/>
       <c r="B217" s="46"/>
     </row>
-    <row r="218" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A218" s="47"/>
       <c r="B218" s="48" t="s">
         <v>25</v>
@@ -10143,7 +10143,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{8BC51C3E-20BC-450A-A5C8-5405F069FFEA}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{F84A5BDC-DC8F-4DD8-BA5E-7ACDC0010BB5}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
